--- a/biology/Biologie cellulaire et moléculaire/Haplogroupe_L_(ADNmt)/Haplogroupe_L_(ADNmt).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Haplogroupe_L_(ADNmt)/Haplogroupe_L_(ADNmt).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'haplogroupe L (ADNmt) est le macro-haplogroupe de l'ADN mitochondrial qui est à la racine de l'arbre phylogénétique mitochondrial humain. En conséquence, toutes les lignes maternelles de l'humanité descendent de cet haplogroupe, qui est celui de l'Ève mitochondriale. La dominance de L en Afrique subsaharienne a confirmé à partir de 1986 la théorie de l'origine africaine de l'Homme moderne. Les sous-groupes principaux de l'haplogroupe L sont L0 à L6.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'haplogroupe L trouve son origine en Afrique subsaharienne, sans que l'on sache encore circonscrire une région précise, d'après les connaissances actuelles.
 </t>
@@ -542,14 +556,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les sous-clades de l'haplogroupe L sont prédominants dans toute l'Afrique subsaharienne, où les fréquences vont de 96 à 100 %. Les régions africaines de langues chamito-sémitiques étant peuplées en partie par des populations d'origine eurasienne présentent des fréquences de L nettement plus faibles. Des fréquences encore plus basses sont trouvées dans la Péninsule arabique, au Proche-Orient et en Europe.
-Afrique subsaharienne
-Afrique du Nord
-Moyen-Orient
-Europe
-Amériques</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sous-clades de l'haplogroupe L sont prédominants dans toute l'Afrique subsaharienne, où les fréquences vont de 96 à 100 %. Les régions africaines de langues chamito-sémitiques étant peuplées en partie par des populations d'origine eurasienne présentent des fréquences de L nettement plus faibles. Des fréquences encore plus basses sont trouvées dans la Péninsule arabique, au Proche-Orient et en Europe.
+</t>
         </is>
       </c>
     </row>
@@ -578,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
